--- a/Temario/EIE/DAFO en excel.xlsx
+++ b/Temario/EIE/DAFO en excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Axuda" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">PLANTILLA ANÁLISIS DAFO</t>
   </si>
@@ -143,6 +143,9 @@
     <t xml:space="preserve">- Movimientos a través de redes sociales</t>
   </si>
   <si>
+    <t xml:space="preserve">- Personal cualificado para desenvolver apps</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fai un breve comentario dos factores que considera que precisan algunha explicación:</t>
   </si>
   <si>
@@ -164,10 +167,13 @@
     <t xml:space="preserve">DEFENSIVA</t>
   </si>
   <si>
-    <t xml:space="preserve">Trátase de minorar debilidades para poder aproveitar oportunidade que hai no mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trátase de minorar as ameazasou como resistir mellor o envite.</t>
+    <t xml:space="preserve">- Implementación de inteligencia artifical o asistencia virtual o presencial con profesionales en el ámbito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayor conocimeinto de las necesidades del cliente para adaptabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Conseguir experiencia a lo largo del tiempo en despliegue de aplicaciones</t>
   </si>
   <si>
     <t xml:space="preserve">OFENSIVAS </t>
@@ -176,13 +182,10 @@
     <t xml:space="preserve">SUPERVIVENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">Potenciar as fortalezas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relaciona as debilidades coas amenazas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intentar evitar que a situación da empresa empeore.</t>
+    <t xml:space="preserve">- Renovación con potencial de la propuesta de valor a lo largo del tiempo como la implementación de inteligencia artificial, profesionales en el ábmito presencial o online, psicología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Actualizaciones de la app para adaptarse y destacar frente a la competencia o colaboraciones con marcas destacadas</t>
   </si>
 </sst>
 </file>
@@ -756,27 +759,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,35 +787,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,23 +823,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -880,11 +883,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,7 +931,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,12 +1039,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="80.14"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1049,7 +1052,7 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1123,21 +1126,21 @@
   </sheetPr>
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="70"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.14"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1181,18 +1184,13 @@
       <c r="A5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1406,9 @@
       <c r="C23" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="39" t="n">
         <v>4</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
@@ -1538,18 +1538,18 @@
       <c r="I34" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="s">
-        <v>23</v>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
-        <v>24</v>
+      <c r="D37" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
-        <v>25</v>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1585,27 +1585,27 @@
   </sheetPr>
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="70"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.14"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1626,7 +1626,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1639,29 +1639,24 @@
       <c r="A5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="C7" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="21"/>
       <c r="I7" s="15"/>
@@ -1672,13 +1667,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="15"/>
     </row>
@@ -1687,7 +1682,9 @@
       <c r="C9" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="27" t="n">
         <v>2</v>
       </c>
@@ -1797,29 +1794,29 @@
     <row r="19" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="C19" s="32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="20"/>
       <c r="F19" s="33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" s="33"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="C20" s="34" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" s="36" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -1832,9 +1829,7 @@
       <c r="F21" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="G21" s="37"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Temario/EIE/DAFO en excel.xlsx
+++ b/Temario/EIE/DAFO en excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Axuda" sheetId="1" state="visible" r:id="rId2"/>
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
